--- a/05 UAT Result and Evidence/Accounting/ACC01-01 Accounting.xlsx
+++ b/05 UAT Result and Evidence/Accounting/ACC01-01 Accounting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365dipostar.sharepoint.com/sites/PJ_NewOPLSystemImplementation/Shared Documents/UAT/05 UAT Result and Evidence/Accounting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365bsi-my.sharepoint.com/personal/bsi90736_bsi_co_id/Documents/iFin-Notes/05 UAT Result and Evidence/Accounting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3596BBC-904C-4178-AEA4-B917327D3D04}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{AD0090A1-15C9-4128-A2CD-9E5B66DB86A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3B9A15-2E09-4447-B7EE-0C86E3F09636}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{489200D9-8038-4F3F-8D8A-35128F02D1FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1086,6 +1086,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1130,6 +1137,13 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1187,7 +1201,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Book1"/>
@@ -1202,7 +1216,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="調査票Ⅰ～Ⅲ"/>
@@ -1235,7 +1249,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="レビュー管理用資料概要"/>
@@ -1558,14 +1572,14 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2635,19 +2649,19 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7265625" customWidth="1"/>
-    <col min="6" max="6" width="42.453125" customWidth="1"/>
-    <col min="7" max="13" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2671,7 +2685,7 @@
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="44" t="s">
         <v>91</v>
       </c>
@@ -2822,7 +2836,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="1:15" ht="159.5">
+    <row r="9" spans="1:15" ht="165">
       <c r="A9" s="38"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -2841,7 +2855,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:15" ht="174">
+    <row r="10" spans="1:15" ht="180">
       <c r="A10" s="38"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -2860,7 +2874,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
     </row>
-    <row r="11" spans="1:15" ht="174">
+    <row r="11" spans="1:15" ht="180">
       <c r="A11" s="38"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -3702,21 +3716,21 @@
   </sheetPr>
   <dimension ref="A1:CQ172"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BA75" sqref="BA75"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="36" customWidth="1"/>
-    <col min="2" max="95" width="3.453125" style="26" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="26"/>
+    <col min="1" max="1" width="15.85546875" style="36" customWidth="1"/>
+    <col min="2" max="95" width="3.42578125" style="26" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="25"/>
     </row>
-    <row r="2" spans="1:95">
+    <row r="2" spans="1:95" ht="15">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -3768,7 +3782,7 @@
       <c r="AU2" s="77"/>
       <c r="AV2" s="77"/>
     </row>
-    <row r="3" spans="1:95" ht="28">
+    <row r="3" spans="1:95" ht="30">
       <c r="A3" s="27" t="s">
         <v>115</v>
       </c>
@@ -3820,7 +3834,7 @@
       <c r="AU3" s="78"/>
       <c r="AV3" s="78"/>
     </row>
-    <row r="5" spans="1:95">
+    <row r="5" spans="1:95" ht="15">
       <c r="A5" s="27" t="s">
         <v>100</v>
       </c>
@@ -5529,21 +5543,21 @@
   </sheetPr>
   <dimension ref="A1:CQ93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AA72" sqref="AA72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="55" customWidth="1"/>
-    <col min="2" max="95" width="3.453125" style="54" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="54"/>
+    <col min="1" max="1" width="15.85546875" style="55" customWidth="1"/>
+    <col min="2" max="95" width="3.42578125" style="54" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="56"/>
     </row>
-    <row r="2" spans="1:95" ht="14.15" customHeight="1">
+    <row r="2" spans="1:95" ht="14.1" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>114</v>
       </c>
@@ -5595,7 +5609,7 @@
       <c r="AU2" s="81"/>
       <c r="AV2" s="81"/>
     </row>
-    <row r="3" spans="1:95" ht="28">
+    <row r="3" spans="1:95" ht="30">
       <c r="A3" s="57" t="s">
         <v>115</v>
       </c>
@@ -5647,7 +5661,7 @@
       <c r="AU3" s="82"/>
       <c r="AV3" s="82"/>
     </row>
-    <row r="5" spans="1:95" ht="14.15" customHeight="1">
+    <row r="5" spans="1:95" ht="14.1" customHeight="1">
       <c r="A5" s="57" t="s">
         <v>100</v>
       </c>
@@ -6956,17 +6970,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="55" customWidth="1"/>
-    <col min="2" max="95" width="3.453125" style="54" customWidth="1"/>
-    <col min="96" max="16384" width="9.1796875" style="54"/>
+    <col min="1" max="1" width="15.85546875" style="55" customWidth="1"/>
+    <col min="2" max="95" width="3.42578125" style="54" customWidth="1"/>
+    <col min="96" max="16384" width="9.140625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row r="1" spans="1:95" ht="15">
       <c r="A1" s="56"/>
     </row>
-    <row r="2" spans="1:95" ht="14.15" customHeight="1">
+    <row r="2" spans="1:95" ht="14.1" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>114</v>
       </c>
@@ -7018,7 +7032,7 @@
       <c r="AU2" s="81"/>
       <c r="AV2" s="81"/>
     </row>
-    <row r="3" spans="1:95" ht="28">
+    <row r="3" spans="1:95" ht="30">
       <c r="A3" s="57" t="s">
         <v>115</v>
       </c>
@@ -7070,7 +7084,7 @@
       <c r="AU3" s="82"/>
       <c r="AV3" s="82"/>
     </row>
-    <row r="5" spans="1:95" ht="14.15" customHeight="1">
+    <row r="5" spans="1:95" ht="14.1" customHeight="1">
       <c r="A5" s="57" t="s">
         <v>100</v>
       </c>
@@ -8376,7 +8390,7 @@
       <selection activeCell="B7" activeCellId="1" sqref="B10 B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -8509,6 +8523,63 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="082b249c-3e96-4a7c-9ff2-21fd1dcff023">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8" xsi:nil="true"/>
+    <SharedWithUsers xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8">
+      <UserInfo>
+        <DisplayName>Richardus Bayu</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Wawan Hermawan</DisplayName>
+        <AccountId>15</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Andriani Kartiningrum</DisplayName>
+        <AccountId>12</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Muhamad Ridzky Alfiansyah</DisplayName>
+        <AccountId>25</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Khairina Dwi Saktia</DisplayName>
+        <AccountId>467</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sony Nugraha</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Natalia</DisplayName>
+        <AccountId>71</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC48E16567E1D34D8B0907037ED2122D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7198d6e6b33a4d5f691aef6e919d14c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="082b249c-3e96-4a7c-9ff2-21fd1dcff023" xmlns:ns3="a73fd218-8bca-4422-add3-bf5da46cbfd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70608b7b522b88a2cf49d229e5d3aa78" ns2:_="" ns3:_="">
     <xsd:import namespace="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
@@ -8731,78 +8802,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="082b249c-3e96-4a7c-9ff2-21fd1dcff023">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8" xsi:nil="true"/>
-    <SharedWithUsers xmlns="a73fd218-8bca-4422-add3-bf5da46cbfd8">
-      <UserInfo>
-        <DisplayName>Richardus Bayu</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Wawan Hermawan</DisplayName>
-        <AccountId>15</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Andriani Kartiningrum</DisplayName>
-        <AccountId>12</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Muhamad Ridzky Alfiansyah</DisplayName>
-        <AccountId>25</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Khairina Dwi Saktia</DisplayName>
-        <AccountId>467</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sony Nugraha</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Natalia</DisplayName>
-        <AccountId>71</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13457B60-87C9-463D-9B66-3401FC4E2864}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2E120-0C31-4CAA-BE47-EB1E8A770F3F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
-    <ds:schemaRef ds:uri="a73fd218-8bca-4422-add3-bf5da46cbfd8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8825,9 +8828,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B2E120-0C31-4CAA-BE47-EB1E8A770F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13457B60-87C9-463D-9B66-3401FC4E2864}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="082b249c-3e96-4a7c-9ff2-21fd1dcff023"/>
+    <ds:schemaRef ds:uri="a73fd218-8bca-4422-add3-bf5da46cbfd8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>